--- a/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
+++ b/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
@@ -16346,13 +16346,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -16804,7 +16804,7 @@
   <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
+++ b/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
@@ -8823,11 +8823,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="99023488"/>
-        <c:axId val="100885632"/>
+        <c:axId val="87012864"/>
+        <c:axId val="87015424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99023488"/>
+        <c:axId val="87012864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8857,12 +8857,12 @@
         </c:title>
         <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100885632"/>
+        <c:crossAx val="87015424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100885632"/>
+        <c:axId val="87015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -8890,7 +8890,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99023488"/>
+        <c:crossAx val="87012864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8903,7 +8903,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8963,20 +8963,6 @@
             <c:symbol val="circle"/>
             <c:size val="3"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.8844119765949922E-2"/>
-                  <c:y val="0.12237424079215532"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$B$2:$B$286</c:f>
@@ -10682,13 +10668,122 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82002304"/>
-        <c:axId val="82004224"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linea 45º</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="89461504"/>
+        <c:axId val="89463424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82002304"/>
+        <c:axId val="89461504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -10716,14 +10811,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82004224"/>
+        <c:crossAx val="89463424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82004224"/>
+        <c:axId val="89463424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -10745,9 +10842,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82002304"/>
+        <c:crossAx val="89461504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10760,7 +10857,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10820,20 +10917,6 @@
             <c:symbol val="circle"/>
             <c:size val="3"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.18728857505736826"/>
-                  <c:y val="8.0784363032465251E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$B$2:$B$286</c:f>
@@ -12539,13 +12622,116 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="99362688"/>
-        <c:axId val="99685504"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linea 45º</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="89509248"/>
+        <c:axId val="89519616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99362688"/>
+        <c:axId val="89509248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -12573,14 +12759,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99685504"/>
+        <c:crossAx val="89519616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99685504"/>
+        <c:axId val="89519616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -12602,9 +12790,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99362688"/>
+        <c:crossAx val="89509248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12617,7 +12805,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12677,20 +12865,6 @@
             <c:symbol val="circle"/>
             <c:size val="3"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.20292078234572641"/>
-                  <c:y val="5.2452632874015748E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$B$2:$B$286</c:f>
@@ -14396,13 +14570,116 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68024576"/>
-        <c:axId val="70644480"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linea 45º</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="89426176"/>
+        <c:axId val="89436544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68024576"/>
+        <c:axId val="89426176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -14434,14 +14711,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70644480"/>
+        <c:crossAx val="89436544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70644480"/>
+        <c:axId val="89436544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -14463,9 +14742,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68024576"/>
+        <c:crossAx val="89426176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14478,7 +14757,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14538,20 +14817,6 @@
             <c:symbol val="circle"/>
             <c:size val="3"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.35948890910148723"/>
-                  <c:y val="2.2178932835707675E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$B$2:$B$286</c:f>
@@ -16257,13 +16522,109 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81257600"/>
-        <c:axId val="81420288"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Linea 45º</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="89654400"/>
+        <c:axId val="89656320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81257600"/>
+        <c:axId val="89654400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -16291,14 +16652,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81420288"/>
+        <c:crossAx val="89656320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81420288"/>
+        <c:axId val="89656320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -16322,7 +16685,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81257600"/>
+        <c:crossAx val="89654400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16335,7 +16698,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16376,15 +16739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16497,23 +16860,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_cam_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_mcp_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_mcp_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="provaLabView_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="provaLabView_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_HTU_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_HTU_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_bmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_bmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_cam_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16801,10 +17164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S277" sqref="S277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16823,7 +17186,7 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16855,7 +17218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="5">
         <v>43754.563993055555</v>
       </c>
@@ -16898,8 +17261,11 @@
         <f>ROUND(H2,1)</f>
         <v>27.4</v>
       </c>
+      <c r="O2">
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="5">
         <v>43754.566261574073</v>
       </c>
@@ -16909,8 +17275,12 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
+      <c r="O3">
+        <f>O2+0.5</f>
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>43754.56931712963</v>
       </c>
@@ -16945,19 +17315,22 @@
         <v>8</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" ref="L3:L66" si="0">ROUND(F4,1)</f>
+        <f t="shared" ref="L4:L66" si="0">ROUND(F4,1)</f>
         <v>25.7</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" ref="M3:M66" si="1">ROUND(D4,1)</f>
+        <f t="shared" ref="M4:M66" si="1">ROUND(D4,1)</f>
         <v>24.9</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N3:N66" si="2">ROUND(H4,1)</f>
+        <f t="shared" ref="N4:N66" si="2">ROUND(H4,1)</f>
         <v>27.4</v>
       </c>
+      <c r="O4">
+        <v>24.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>43754.572789351849</v>
       </c>
@@ -17003,8 +17376,12 @@
         <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O17" si="3">O4+0.5</f>
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>43754.576261574075</v>
       </c>
@@ -17050,8 +17427,11 @@
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
+      <c r="O6">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>43754.579733796294</v>
       </c>
@@ -17097,8 +17477,12 @@
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O17" si="4">O6+0.5</f>
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="5">
         <v>43754.58320601852</v>
       </c>
@@ -17144,8 +17528,11 @@
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
+      <c r="O8">
+        <v>26.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>43754.586678240739</v>
       </c>
@@ -17191,8 +17578,12 @@
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O17" si="5">O8+0.5</f>
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="5">
         <v>43754.590150462966</v>
       </c>
@@ -17238,8 +17629,11 @@
         <f t="shared" si="2"/>
         <v>27.7</v>
       </c>
+      <c r="O10">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
         <v>43754.593622685185</v>
       </c>
@@ -17285,8 +17679,12 @@
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O17" si="6">O10+0.5</f>
+        <v>28</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>43754.597094907411</v>
       </c>
@@ -17332,8 +17730,11 @@
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
+      <c r="O12">
+        <v>28.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>43754.60056712963</v>
       </c>
@@ -17379,8 +17780,12 @@
         <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O17" si="7">O12+0.5</f>
+        <v>29</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
         <v>43754.604039351849</v>
       </c>
@@ -17426,8 +17831,11 @@
         <f t="shared" si="2"/>
         <v>27.4</v>
       </c>
+      <c r="O14">
+        <v>29.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="5">
         <v>43754.607511574075</v>
       </c>
@@ -17473,8 +17881,12 @@
         <f t="shared" si="2"/>
         <v>27.4</v>
       </c>
+      <c r="O15">
+        <f t="shared" ref="O15:O17" si="8">O14+0.5</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="5">
         <v>43754.610983796294</v>
       </c>
@@ -17520,8 +17932,11 @@
         <f t="shared" si="2"/>
         <v>27.4</v>
       </c>
+      <c r="O16">
+        <v>30.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="5">
         <v>43754.61445601852</v>
       </c>
@@ -17567,8 +17982,12 @@
         <f t="shared" si="2"/>
         <v>27.4</v>
       </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="9">O16+0.5</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="5">
         <v>43754.617928240739</v>
       </c>
@@ -17615,7 +18034,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="5">
         <v>43754.621400462966</v>
       </c>
@@ -17662,7 +18081,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="5">
         <v>43754.624872685185</v>
       </c>
@@ -17709,7 +18128,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="5">
         <v>43754.628344907411</v>
       </c>
@@ -17756,7 +18175,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="5">
         <v>43754.63181712963</v>
       </c>
@@ -17803,7 +18222,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="5">
         <v>43754.635289351849</v>
       </c>
@@ -17850,7 +18269,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="5">
         <v>43754.638761574075</v>
       </c>
@@ -17897,7 +18316,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="5">
         <v>43754.642233796294</v>
       </c>
@@ -17944,7 +18363,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="5">
         <v>43754.64570601852</v>
       </c>
@@ -17991,7 +18410,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="5">
         <v>43754.649178240739</v>
       </c>
@@ -18038,7 +18457,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="5">
         <v>43754.652650462966</v>
       </c>
@@ -18085,7 +18504,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="5">
         <v>43754.656122685185</v>
       </c>
@@ -18132,7 +18551,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="5">
         <v>43754.659594907411</v>
       </c>
@@ -18179,7 +18598,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="5">
         <v>43754.66306712963</v>
       </c>
@@ -18226,7 +18645,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="5">
         <v>43754.666539351849</v>
       </c>
@@ -19906,15 +20325,15 @@
         <v>15</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" ref="L67:L130" si="3">ROUND(F67,1)</f>
+        <f t="shared" ref="L67:L130" si="10">ROUND(F67,1)</f>
         <v>25.1</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M130" si="4">ROUND(D67,1)</f>
+        <f t="shared" ref="M67:M130" si="11">ROUND(D67,1)</f>
         <v>24.4</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" ref="N67:N130" si="5">ROUND(H67,1)</f>
+        <f t="shared" ref="N67:N130" si="12">ROUND(H67,1)</f>
         <v>26.8</v>
       </c>
     </row>
@@ -19953,15 +20372,15 @@
         <v>15</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -20000,15 +20419,15 @@
         <v>15</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M69" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20047,15 +20466,15 @@
         <v>15</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -20094,15 +20513,15 @@
         <v>15</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -20141,15 +20560,15 @@
         <v>15</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -20188,15 +20607,15 @@
         <v>15</v>
       </c>
       <c r="L73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M73" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N73" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20235,15 +20654,15 @@
         <v>15</v>
       </c>
       <c r="L74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M74" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N74" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20282,15 +20701,15 @@
         <v>15</v>
       </c>
       <c r="L75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M75" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N75" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20329,15 +20748,15 @@
         <v>15</v>
       </c>
       <c r="L76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M76" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N76" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20376,15 +20795,15 @@
         <v>15</v>
       </c>
       <c r="L77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M77" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N77" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20423,15 +20842,15 @@
         <v>15</v>
       </c>
       <c r="L78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M78" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N78" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20470,15 +20889,15 @@
         <v>15</v>
       </c>
       <c r="L79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M79" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N79" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20517,15 +20936,15 @@
         <v>15</v>
       </c>
       <c r="L80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M80" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20564,15 +20983,15 @@
         <v>15</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.4</v>
       </c>
       <c r="N81" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20611,15 +21030,15 @@
         <v>15</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20658,15 +21077,15 @@
         <v>15</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20705,15 +21124,15 @@
         <v>15</v>
       </c>
       <c r="L84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M84" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20752,15 +21171,15 @@
         <v>15</v>
       </c>
       <c r="L85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M85" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20799,15 +21218,15 @@
         <v>15</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N86" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20846,15 +21265,15 @@
         <v>15</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M87" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20893,15 +21312,15 @@
         <v>15</v>
       </c>
       <c r="L88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25.1</v>
       </c>
       <c r="M88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N88" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -20940,15 +21359,15 @@
         <v>15</v>
       </c>
       <c r="L89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N89" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -20987,15 +21406,15 @@
         <v>15</v>
       </c>
       <c r="L90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N90" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.8</v>
       </c>
     </row>
@@ -21034,15 +21453,15 @@
         <v>15</v>
       </c>
       <c r="L91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N91" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21081,15 +21500,15 @@
         <v>15</v>
       </c>
       <c r="L92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N92" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21128,15 +21547,15 @@
         <v>15</v>
       </c>
       <c r="L93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N93" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21175,15 +21594,15 @@
         <v>15</v>
       </c>
       <c r="L94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N94" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21222,15 +21641,15 @@
         <v>15</v>
       </c>
       <c r="L95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N95" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21269,15 +21688,15 @@
         <v>16</v>
       </c>
       <c r="L96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N96" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21316,15 +21735,15 @@
         <v>16</v>
       </c>
       <c r="L97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N97" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21363,15 +21782,15 @@
         <v>16</v>
       </c>
       <c r="L98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M98" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N98" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.7</v>
       </c>
     </row>
@@ -21410,15 +21829,15 @@
         <v>16</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N99" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21457,15 +21876,15 @@
         <v>16</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N100" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21504,15 +21923,15 @@
         <v>16</v>
       </c>
       <c r="L101" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N101" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21551,15 +21970,15 @@
         <v>16</v>
       </c>
       <c r="L102" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M102" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N102" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21598,15 +22017,15 @@
         <v>16</v>
       </c>
       <c r="L103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M103" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N103" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21645,15 +22064,15 @@
         <v>16</v>
       </c>
       <c r="L104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M104" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N104" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21692,15 +22111,15 @@
         <v>16</v>
       </c>
       <c r="L105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M105" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N105" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21739,15 +22158,15 @@
         <v>16</v>
       </c>
       <c r="L106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N106" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21786,15 +22205,15 @@
         <v>17</v>
       </c>
       <c r="L107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.3</v>
       </c>
       <c r="N107" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21833,15 +22252,15 @@
         <v>17</v>
       </c>
       <c r="L108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M108" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N108" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21880,15 +22299,15 @@
         <v>17</v>
       </c>
       <c r="L109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M109" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N109" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21927,15 +22346,15 @@
         <v>17</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N110" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -21974,15 +22393,15 @@
         <v>17</v>
       </c>
       <c r="L111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.9</v>
       </c>
       <c r="M111" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N111" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22021,15 +22440,15 @@
         <v>17</v>
       </c>
       <c r="L112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M112" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N112" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22068,15 +22487,15 @@
         <v>17</v>
       </c>
       <c r="L113" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M113" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N113" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22115,15 +22534,15 @@
         <v>17</v>
       </c>
       <c r="L114" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M114" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N114" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22162,15 +22581,15 @@
         <v>17</v>
       </c>
       <c r="L115" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M115" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N115" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22209,15 +22628,15 @@
         <v>17</v>
       </c>
       <c r="L116" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M116" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N116" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22256,15 +22675,15 @@
         <v>17</v>
       </c>
       <c r="L117" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M117" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
       <c r="N117" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22303,15 +22722,15 @@
         <v>17</v>
       </c>
       <c r="L118" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M118" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N118" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22350,15 +22769,15 @@
         <v>17</v>
       </c>
       <c r="L119" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M119" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N119" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22397,15 +22816,15 @@
         <v>17</v>
       </c>
       <c r="L120" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M120" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N120" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22444,15 +22863,15 @@
         <v>17</v>
       </c>
       <c r="L121" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M121" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N121" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22491,15 +22910,15 @@
         <v>17</v>
       </c>
       <c r="L122" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N122" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.6</v>
       </c>
     </row>
@@ -22538,15 +22957,15 @@
         <v>17</v>
       </c>
       <c r="L123" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M123" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N123" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22585,15 +23004,15 @@
         <v>17</v>
       </c>
       <c r="L124" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M124" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N124" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22632,15 +23051,15 @@
         <v>17</v>
       </c>
       <c r="L125" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N125" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22679,15 +23098,15 @@
         <v>18</v>
       </c>
       <c r="L126" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22726,15 +23145,15 @@
         <v>18</v>
       </c>
       <c r="L127" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M127" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N127" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22773,15 +23192,15 @@
         <v>18</v>
       </c>
       <c r="L128" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M128" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N128" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22820,15 +23239,15 @@
         <v>18</v>
       </c>
       <c r="L129" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M129" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N129" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.4</v>
       </c>
     </row>
@@ -22867,15 +23286,15 @@
         <v>18</v>
       </c>
       <c r="L130" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>24.8</v>
       </c>
       <c r="M130" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>24.1</v>
       </c>
       <c r="N130" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>26.5</v>
       </c>
     </row>
@@ -22914,15 +23333,15 @@
         <v>18</v>
       </c>
       <c r="L131" s="7">
-        <f t="shared" ref="L131:L194" si="6">ROUND(F131,1)</f>
+        <f t="shared" ref="L131:L194" si="13">ROUND(F131,1)</f>
         <v>24.7</v>
       </c>
       <c r="M131" s="7">
-        <f t="shared" ref="M131:M194" si="7">ROUND(D131,1)</f>
+        <f t="shared" ref="M131:M194" si="14">ROUND(D131,1)</f>
         <v>24.1</v>
       </c>
       <c r="N131" s="7">
-        <f t="shared" ref="N131:N194" si="8">ROUND(H131,1)</f>
+        <f t="shared" ref="N131:N194" si="15">ROUND(H131,1)</f>
         <v>26.4</v>
       </c>
     </row>
@@ -22961,15 +23380,15 @@
         <v>18</v>
       </c>
       <c r="L132" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M132" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N132" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23008,15 +23427,15 @@
         <v>18</v>
       </c>
       <c r="L133" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M133" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24.1</v>
       </c>
       <c r="N133" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23055,15 +23474,15 @@
         <v>18</v>
       </c>
       <c r="L134" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M134" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24.1</v>
       </c>
       <c r="N134" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23102,15 +23521,15 @@
         <v>18</v>
       </c>
       <c r="L135" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M135" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24.1</v>
       </c>
       <c r="N135" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23149,15 +23568,15 @@
         <v>18</v>
       </c>
       <c r="L136" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M136" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24.1</v>
       </c>
       <c r="N136" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23196,15 +23615,15 @@
         <v>18</v>
       </c>
       <c r="L137" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M137" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24.1</v>
       </c>
       <c r="N137" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23243,15 +23662,15 @@
         <v>18</v>
       </c>
       <c r="L138" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M138" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N138" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23290,15 +23709,15 @@
         <v>18</v>
       </c>
       <c r="L139" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M139" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N139" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23337,15 +23756,15 @@
         <v>18</v>
       </c>
       <c r="L140" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M140" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N140" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23384,15 +23803,15 @@
         <v>18</v>
       </c>
       <c r="L141" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M141" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N141" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23431,15 +23850,15 @@
         <v>19</v>
       </c>
       <c r="L142" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M142" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N142" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23478,15 +23897,15 @@
         <v>18</v>
       </c>
       <c r="L143" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M143" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N143" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23525,15 +23944,15 @@
         <v>19</v>
       </c>
       <c r="L144" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M144" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N144" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23572,15 +23991,15 @@
         <v>19</v>
       </c>
       <c r="L145" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.7</v>
       </c>
       <c r="M145" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N145" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23619,15 +24038,15 @@
         <v>19</v>
       </c>
       <c r="L146" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M146" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N146" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23666,15 +24085,15 @@
         <v>19</v>
       </c>
       <c r="L147" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M147" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N147" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23713,15 +24132,15 @@
         <v>19</v>
       </c>
       <c r="L148" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M148" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N148" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23760,15 +24179,15 @@
         <v>19</v>
       </c>
       <c r="L149" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M149" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N149" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23807,15 +24226,15 @@
         <v>19</v>
       </c>
       <c r="L150" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M150" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N150" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23854,15 +24273,15 @@
         <v>19</v>
       </c>
       <c r="L151" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M151" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N151" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -23901,15 +24320,15 @@
         <v>19</v>
       </c>
       <c r="L152" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M152" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="N152" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23948,15 +24367,15 @@
         <v>19</v>
       </c>
       <c r="L153" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M153" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N153" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -23995,15 +24414,15 @@
         <v>19</v>
       </c>
       <c r="L154" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M154" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N154" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -24042,15 +24461,15 @@
         <v>19</v>
       </c>
       <c r="L155" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M155" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N155" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24089,15 +24508,15 @@
         <v>19</v>
       </c>
       <c r="L156" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M156" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N156" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24136,15 +24555,15 @@
         <v>19</v>
       </c>
       <c r="L157" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M157" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N157" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
     </row>
@@ -24183,15 +24602,15 @@
         <v>19</v>
       </c>
       <c r="L158" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M158" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N158" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24230,15 +24649,15 @@
         <v>19</v>
       </c>
       <c r="L159" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M159" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N159" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24277,15 +24696,15 @@
         <v>19</v>
       </c>
       <c r="L160" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M160" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N160" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24324,15 +24743,15 @@
         <v>19</v>
       </c>
       <c r="L161" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N161" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24371,15 +24790,15 @@
         <v>20</v>
       </c>
       <c r="L162" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M162" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N162" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24418,15 +24837,15 @@
         <v>19</v>
       </c>
       <c r="L163" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M163" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N163" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24465,15 +24884,15 @@
         <v>20</v>
       </c>
       <c r="L164" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M164" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N164" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24512,15 +24931,15 @@
         <v>20</v>
       </c>
       <c r="L165" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M165" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N165" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24559,15 +24978,15 @@
         <v>20</v>
       </c>
       <c r="L166" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="M166" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N166" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24606,15 +25025,15 @@
         <v>20</v>
       </c>
       <c r="L167" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M167" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N167" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24653,15 +25072,15 @@
         <v>20</v>
       </c>
       <c r="L168" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M168" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N168" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -24700,15 +25119,15 @@
         <v>20</v>
       </c>
       <c r="L169" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M169" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N169" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -24747,15 +25166,15 @@
         <v>20</v>
       </c>
       <c r="L170" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M170" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N170" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -24794,15 +25213,15 @@
         <v>20</v>
       </c>
       <c r="L171" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M171" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N171" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24841,15 +25260,15 @@
         <v>20</v>
       </c>
       <c r="L172" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M172" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N172" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24888,15 +25307,15 @@
         <v>20</v>
       </c>
       <c r="L173" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M173" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N173" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24935,15 +25354,15 @@
         <v>20</v>
       </c>
       <c r="L174" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M174" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.9</v>
       </c>
       <c r="N174" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -24982,15 +25401,15 @@
         <v>20</v>
       </c>
       <c r="L175" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M175" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N175" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -25029,15 +25448,15 @@
         <v>20</v>
       </c>
       <c r="L176" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M176" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N176" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.3</v>
       </c>
     </row>
@@ -25076,15 +25495,15 @@
         <v>20</v>
       </c>
       <c r="L177" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M177" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N177" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25123,15 +25542,15 @@
         <v>20</v>
       </c>
       <c r="L178" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M178" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N178" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25170,15 +25589,15 @@
         <v>21</v>
       </c>
       <c r="L179" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M179" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N179" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25217,15 +25636,15 @@
         <v>20</v>
       </c>
       <c r="L180" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M180" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N180" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25264,15 +25683,15 @@
         <v>21</v>
       </c>
       <c r="L181" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M181" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N181" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25311,15 +25730,15 @@
         <v>21</v>
       </c>
       <c r="L182" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M182" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N182" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25358,15 +25777,15 @@
         <v>21</v>
       </c>
       <c r="L183" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M183" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N183" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25405,15 +25824,15 @@
         <v>21</v>
       </c>
       <c r="L184" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
       <c r="M184" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N184" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.2</v>
       </c>
     </row>
@@ -25452,15 +25871,15 @@
         <v>21</v>
       </c>
       <c r="L185" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M185" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N185" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25499,15 +25918,15 @@
         <v>21</v>
       </c>
       <c r="L186" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M186" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N186" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25546,15 +25965,15 @@
         <v>21</v>
       </c>
       <c r="L187" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N187" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25593,15 +26012,15 @@
         <v>21</v>
       </c>
       <c r="L188" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M188" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N188" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25640,15 +26059,15 @@
         <v>21</v>
       </c>
       <c r="L189" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M189" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N189" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25687,15 +26106,15 @@
         <v>21</v>
       </c>
       <c r="L190" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M190" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N190" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25734,15 +26153,15 @@
         <v>21</v>
       </c>
       <c r="L191" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M191" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N191" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25781,15 +26200,15 @@
         <v>21</v>
       </c>
       <c r="L192" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M192" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N192" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25828,15 +26247,15 @@
         <v>21</v>
       </c>
       <c r="L193" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M193" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N193" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25875,15 +26294,15 @@
         <v>21</v>
       </c>
       <c r="L194" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24.4</v>
       </c>
       <c r="M194" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23.8</v>
       </c>
       <c r="N194" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
     </row>
@@ -25922,15 +26341,15 @@
         <v>21</v>
       </c>
       <c r="L195" s="7">
-        <f t="shared" ref="L195:L258" si="9">ROUND(F195,1)</f>
+        <f t="shared" ref="L195:L258" si="16">ROUND(F195,1)</f>
         <v>24.4</v>
       </c>
       <c r="M195" s="7">
-        <f t="shared" ref="M195:M258" si="10">ROUND(D195,1)</f>
+        <f t="shared" ref="M195:M258" si="17">ROUND(D195,1)</f>
         <v>23.8</v>
       </c>
       <c r="N195" s="7">
-        <f t="shared" ref="N195:N258" si="11">ROUND(H195,1)</f>
+        <f t="shared" ref="N195:N258" si="18">ROUND(H195,1)</f>
         <v>26.1</v>
       </c>
     </row>
@@ -25969,15 +26388,15 @@
         <v>21</v>
       </c>
       <c r="L196" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M196" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.8</v>
       </c>
       <c r="N196" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26016,15 +26435,15 @@
         <v>21</v>
       </c>
       <c r="L197" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M197" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N197" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26063,15 +26482,15 @@
         <v>22</v>
       </c>
       <c r="L198" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M198" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N198" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26110,15 +26529,15 @@
         <v>22</v>
       </c>
       <c r="L199" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M199" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N199" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26201,15 +26620,15 @@
         <v>22</v>
       </c>
       <c r="L204" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M204" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N204" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26248,15 +26667,15 @@
         <v>22</v>
       </c>
       <c r="L205" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M205" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N205" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26295,15 +26714,15 @@
         <v>22</v>
       </c>
       <c r="L206" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M206" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N206" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26342,15 +26761,15 @@
         <v>22</v>
       </c>
       <c r="L207" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M207" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N207" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26389,15 +26808,15 @@
         <v>22</v>
       </c>
       <c r="L208" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M208" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N208" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26436,15 +26855,15 @@
         <v>22</v>
       </c>
       <c r="L209" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M209" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N209" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26483,15 +26902,15 @@
         <v>22</v>
       </c>
       <c r="L210" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M210" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N210" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26530,15 +26949,15 @@
         <v>22</v>
       </c>
       <c r="L211" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M211" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N211" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26577,15 +26996,15 @@
         <v>22</v>
       </c>
       <c r="L212" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M212" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N212" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26624,15 +27043,15 @@
         <v>22</v>
       </c>
       <c r="L213" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M213" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N213" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26682,15 +27101,15 @@
         <v>22</v>
       </c>
       <c r="L215" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M215" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N215" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -26729,15 +27148,15 @@
         <v>22</v>
       </c>
       <c r="L216" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M216" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N216" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26776,15 +27195,15 @@
         <v>22</v>
       </c>
       <c r="L217" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M217" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N217" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -26823,15 +27242,15 @@
         <v>22</v>
       </c>
       <c r="L218" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M218" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N218" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -26870,15 +27289,15 @@
         <v>22</v>
       </c>
       <c r="L219" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M219" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N219" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -26917,15 +27336,15 @@
         <v>22</v>
       </c>
       <c r="L220" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M220" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N220" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -26964,15 +27383,15 @@
         <v>22</v>
       </c>
       <c r="L221" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M221" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N221" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27011,15 +27430,15 @@
         <v>23</v>
       </c>
       <c r="L222" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M222" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N222" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27058,15 +27477,15 @@
         <v>23</v>
       </c>
       <c r="L223" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M223" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N223" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27105,15 +27524,15 @@
         <v>23</v>
       </c>
       <c r="L224" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M224" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N224" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27152,15 +27571,15 @@
         <v>23</v>
       </c>
       <c r="L225" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M225" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N225" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27199,15 +27618,15 @@
         <v>23</v>
       </c>
       <c r="L226" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M226" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N226" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27246,15 +27665,15 @@
         <v>23</v>
       </c>
       <c r="L227" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M227" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N227" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27293,15 +27712,15 @@
         <v>23</v>
       </c>
       <c r="L228" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M228" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N228" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27340,15 +27759,15 @@
         <v>23</v>
       </c>
       <c r="L229" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M229" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N229" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27387,15 +27806,15 @@
         <v>23</v>
       </c>
       <c r="L230" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M230" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N230" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27434,15 +27853,15 @@
         <v>23</v>
       </c>
       <c r="L231" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M231" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N231" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27481,15 +27900,15 @@
         <v>23</v>
       </c>
       <c r="L232" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M232" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N232" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27528,15 +27947,15 @@
         <v>23</v>
       </c>
       <c r="L233" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M233" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N233" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27575,15 +27994,15 @@
         <v>23</v>
       </c>
       <c r="L234" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M234" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N234" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27622,15 +28041,15 @@
         <v>23</v>
       </c>
       <c r="L235" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M235" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N235" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27669,15 +28088,15 @@
         <v>22</v>
       </c>
       <c r="L236" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M236" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N236" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -27716,15 +28135,15 @@
         <v>22</v>
       </c>
       <c r="L237" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M237" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N237" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -27763,15 +28182,15 @@
         <v>22</v>
       </c>
       <c r="L238" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M238" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N238" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -27810,15 +28229,15 @@
         <v>22</v>
       </c>
       <c r="L239" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M239" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N239" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -27857,15 +28276,15 @@
         <v>22</v>
       </c>
       <c r="L240" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M240" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N240" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -27904,15 +28323,15 @@
         <v>22</v>
       </c>
       <c r="L241" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M241" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N241" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.2</v>
       </c>
     </row>
@@ -27951,15 +28370,15 @@
         <v>21</v>
       </c>
       <c r="L242" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M242" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N242" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.2</v>
       </c>
     </row>
@@ -27998,15 +28417,15 @@
         <v>21</v>
       </c>
       <c r="L243" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.5</v>
       </c>
       <c r="M243" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N243" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28045,15 +28464,15 @@
         <v>21</v>
       </c>
       <c r="L244" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M244" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.8</v>
       </c>
       <c r="N244" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -28092,15 +28511,15 @@
         <v>22</v>
       </c>
       <c r="L245" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M245" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N245" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -28139,15 +28558,15 @@
         <v>22</v>
       </c>
       <c r="L246" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M246" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N246" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -28186,15 +28605,15 @@
         <v>22</v>
       </c>
       <c r="L247" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M247" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N247" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -28233,15 +28652,15 @@
         <v>22</v>
       </c>
       <c r="L248" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M248" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N248" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
@@ -28280,15 +28699,15 @@
         <v>22</v>
       </c>
       <c r="L249" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.2</v>
       </c>
       <c r="M249" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N249" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -28327,15 +28746,15 @@
         <v>22</v>
       </c>
       <c r="L250" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M250" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N250" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -28374,15 +28793,15 @@
         <v>21</v>
       </c>
       <c r="L251" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.3</v>
       </c>
       <c r="M251" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N251" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.2</v>
       </c>
     </row>
@@ -28421,15 +28840,15 @@
         <v>21</v>
       </c>
       <c r="L252" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M252" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.6</v>
       </c>
       <c r="N252" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28468,15 +28887,15 @@
         <v>20</v>
       </c>
       <c r="L253" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M253" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N253" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28515,15 +28934,15 @@
         <v>20</v>
       </c>
       <c r="L254" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M254" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.7</v>
       </c>
       <c r="N254" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.1</v>
       </c>
     </row>
@@ -28562,15 +28981,15 @@
         <v>20</v>
       </c>
       <c r="L255" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.4</v>
       </c>
       <c r="M255" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.8</v>
       </c>
       <c r="N255" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28609,15 +29028,15 @@
         <v>20</v>
       </c>
       <c r="L256" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.5</v>
       </c>
       <c r="M256" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.8</v>
       </c>
       <c r="N256" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28656,15 +29075,15 @@
         <v>19</v>
       </c>
       <c r="L257" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.5</v>
       </c>
       <c r="M257" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.8</v>
       </c>
       <c r="N257" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28703,15 +29122,15 @@
         <v>19</v>
       </c>
       <c r="L258" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>24.5</v>
       </c>
       <c r="M258" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23.8</v>
       </c>
       <c r="N258" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28750,15 +29169,15 @@
         <v>19</v>
       </c>
       <c r="L259" s="7">
-        <f t="shared" ref="L259:L285" si="12">ROUND(F259,1)</f>
+        <f t="shared" ref="L259:L285" si="19">ROUND(F259,1)</f>
         <v>24.5</v>
       </c>
       <c r="M259" s="7">
-        <f t="shared" ref="M259:M285" si="13">ROUND(D259,1)</f>
+        <f t="shared" ref="M259:M285" si="20">ROUND(D259,1)</f>
         <v>23.8</v>
       </c>
       <c r="N259" s="7">
-        <f t="shared" ref="N259:N285" si="14">ROUND(H259,1)</f>
+        <f t="shared" ref="N259:N285" si="21">ROUND(H259,1)</f>
         <v>26.3</v>
       </c>
     </row>
@@ -28797,15 +29216,15 @@
         <v>20</v>
       </c>
       <c r="L260" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.4</v>
       </c>
       <c r="M260" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="N260" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.3</v>
       </c>
     </row>
@@ -28844,15 +29263,15 @@
         <v>20</v>
       </c>
       <c r="L261" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.4</v>
       </c>
       <c r="M261" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="N261" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.2</v>
       </c>
     </row>
@@ -28902,15 +29321,15 @@
         <v>21</v>
       </c>
       <c r="L263" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.2</v>
       </c>
       <c r="M263" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="N263" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.9</v>
       </c>
     </row>
@@ -28949,15 +29368,15 @@
         <v>23</v>
       </c>
       <c r="L264" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.1</v>
       </c>
       <c r="M264" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.6</v>
       </c>
       <c r="N264" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.7</v>
       </c>
     </row>
@@ -28996,15 +29415,15 @@
         <v>24</v>
       </c>
       <c r="L265" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>23.9</v>
       </c>
       <c r="M265" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.5</v>
       </c>
       <c r="N265" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.5</v>
       </c>
     </row>
@@ -29043,15 +29462,15 @@
         <v>25</v>
       </c>
       <c r="L266" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>23.8</v>
       </c>
       <c r="M266" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.4</v>
       </c>
       <c r="N266" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.4</v>
       </c>
     </row>
@@ -29090,15 +29509,15 @@
         <v>23</v>
       </c>
       <c r="L267" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="M267" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.3</v>
       </c>
       <c r="N267" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.7</v>
       </c>
     </row>
@@ -29137,15 +29556,15 @@
         <v>24</v>
       </c>
       <c r="L268" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="M268" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.4</v>
       </c>
       <c r="N268" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.6</v>
       </c>
     </row>
@@ -29184,15 +29603,15 @@
         <v>23</v>
       </c>
       <c r="L269" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="M269" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.4</v>
       </c>
       <c r="N269" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.6</v>
       </c>
     </row>
@@ -29231,15 +29650,15 @@
         <v>24</v>
       </c>
       <c r="L270" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="M270" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.4</v>
       </c>
       <c r="N270" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.6</v>
       </c>
     </row>
@@ -29278,15 +29697,15 @@
         <v>24</v>
       </c>
       <c r="L271" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="M271" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.4</v>
       </c>
       <c r="N271" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.7</v>
       </c>
     </row>
@@ -29325,15 +29744,15 @@
         <v>24</v>
       </c>
       <c r="L272" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="M272" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.4</v>
       </c>
       <c r="N272" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.6</v>
       </c>
     </row>
@@ -29372,15 +29791,15 @@
         <v>23</v>
       </c>
       <c r="L273" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.1</v>
       </c>
       <c r="M273" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.4</v>
       </c>
       <c r="N273" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.7</v>
       </c>
     </row>
@@ -29419,15 +29838,15 @@
         <v>22</v>
       </c>
       <c r="L274" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.2</v>
       </c>
       <c r="M274" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.5</v>
       </c>
       <c r="N274" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.8</v>
       </c>
     </row>
@@ -29466,15 +29885,15 @@
         <v>23</v>
       </c>
       <c r="L275" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.1</v>
       </c>
       <c r="M275" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.6</v>
       </c>
       <c r="N275" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.7</v>
       </c>
     </row>
@@ -29513,15 +29932,15 @@
         <v>22</v>
       </c>
       <c r="L276" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.2</v>
       </c>
       <c r="M276" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.5</v>
       </c>
       <c r="N276" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>25.9</v>
       </c>
     </row>
@@ -29560,15 +29979,15 @@
         <v>21</v>
       </c>
       <c r="L277" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.4</v>
       </c>
       <c r="M277" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.6</v>
       </c>
       <c r="N277" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.1</v>
       </c>
     </row>
@@ -29607,15 +30026,15 @@
         <v>20</v>
       </c>
       <c r="L278" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.5</v>
       </c>
       <c r="M278" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="N278" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.2</v>
       </c>
     </row>
@@ -29654,15 +30073,15 @@
         <v>20</v>
       </c>
       <c r="L279" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.5</v>
       </c>
       <c r="M279" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="N279" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.1</v>
       </c>
     </row>
@@ -29701,15 +30120,15 @@
         <v>21</v>
       </c>
       <c r="L280" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.5</v>
       </c>
       <c r="M280" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="N280" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.2</v>
       </c>
     </row>
@@ -29748,15 +30167,15 @@
         <v>19</v>
       </c>
       <c r="L281" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.6</v>
       </c>
       <c r="M281" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="N281" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.4</v>
       </c>
     </row>
@@ -29795,15 +30214,15 @@
         <v>19</v>
       </c>
       <c r="L282" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.7</v>
       </c>
       <c r="M282" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.9</v>
       </c>
       <c r="N282" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.5</v>
       </c>
     </row>
@@ -29842,15 +30261,15 @@
         <v>18</v>
       </c>
       <c r="L283" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.8</v>
       </c>
       <c r="M283" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.9</v>
       </c>
       <c r="N283" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.6</v>
       </c>
     </row>
@@ -29889,15 +30308,15 @@
         <v>17</v>
       </c>
       <c r="L284" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.8</v>
       </c>
       <c r="M284" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="N284" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.7</v>
       </c>
     </row>
@@ -29936,15 +30355,15 @@
         <v>17</v>
       </c>
       <c r="L285" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>24.9</v>
       </c>
       <c r="M285" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>24.1</v>
       </c>
       <c r="N285" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>26.7</v>
       </c>
     </row>

--- a/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
+++ b/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="33">
   <si>
     <t>Fecha</t>
   </si>
@@ -160,6 +160,18 @@
   <si>
     <t>Cam round</t>
   </si>
+  <si>
+    <t>RMSE HTU</t>
+  </si>
+  <si>
+    <t>RMSE MCP</t>
+  </si>
+  <si>
+    <t>RMSE Cam</t>
+  </si>
+  <si>
+    <t>RMSE BMP</t>
+  </si>
 </sst>
 </file>
 
@@ -169,13 +181,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +233,11 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,7 +266,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> recollides entre el 16/10/19 i 17/10/19</a:t>
+              <a:t> mesurades entre el 16/10/19 i 17/10/19</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -8823,11 +8846,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87012864"/>
-        <c:axId val="87015424"/>
+        <c:axId val="74208000"/>
+        <c:axId val="74210304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87012864"/>
+        <c:axId val="74208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8857,12 +8880,12 @@
         </c:title>
         <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87015424"/>
+        <c:crossAx val="74210304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87015424"/>
+        <c:axId val="74210304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -8890,7 +8913,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87012864"/>
+        <c:crossAx val="74208000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8903,7 +8926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10672,7 +10695,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Linea 45º</c:v>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -10684,12 +10707,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$O$2:$O$12</c:f>
@@ -10775,11 +10792,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89461504"/>
-        <c:axId val="89463424"/>
+        <c:axId val="74248192"/>
+        <c:axId val="74250112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89461504"/>
+        <c:axId val="74248192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -10811,12 +10828,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89463424"/>
+        <c:crossAx val="74250112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89463424"/>
+        <c:axId val="74250112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -10844,7 +10861,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89461504"/>
+        <c:crossAx val="74248192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10857,7 +10874,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12626,7 +12643,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Linea 45º</c:v>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -12723,11 +12740,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89509248"/>
-        <c:axId val="89519616"/>
+        <c:axId val="77040256"/>
+        <c:axId val="77050624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89509248"/>
+        <c:axId val="77040256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -12759,12 +12776,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89519616"/>
+        <c:crossAx val="77050624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89519616"/>
+        <c:axId val="77050624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -12792,7 +12809,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89509248"/>
+        <c:crossAx val="77040256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12805,7 +12822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14574,7 +14591,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Linea 45º</c:v>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -14671,11 +14688,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89426176"/>
-        <c:axId val="89436544"/>
+        <c:axId val="77161984"/>
+        <c:axId val="77163904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89426176"/>
+        <c:axId val="77161984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -14711,12 +14728,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89436544"/>
+        <c:crossAx val="77163904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89436544"/>
+        <c:axId val="77163904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -14744,7 +14761,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89426176"/>
+        <c:crossAx val="77161984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14757,7 +14774,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16526,7 +16543,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Linea 45º</c:v>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -16616,11 +16633,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89654400"/>
-        <c:axId val="89656320"/>
+        <c:axId val="77189504"/>
+        <c:axId val="77191424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89654400"/>
+        <c:axId val="77189504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -16652,12 +16669,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89656320"/>
+        <c:crossAx val="77191424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89656320"/>
+        <c:axId val="77191424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -16685,7 +16702,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89654400"/>
+        <c:crossAx val="77189504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16698,7 +16715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16860,23 +16877,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_HTU_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_bmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_cam_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_mcp_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="provaLabView_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_HTU_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_bmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_cam_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17166,8 +17183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S277" sqref="S277"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17377,7 +17394,7 @@
         <v>27.5</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O17" si="3">O4+0.5</f>
+        <f t="shared" ref="O5" si="3">O4+0.5</f>
         <v>25</v>
       </c>
     </row>
@@ -17478,7 +17495,7 @@
         <v>27.6</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O17" si="4">O6+0.5</f>
+        <f t="shared" ref="O7" si="4">O6+0.5</f>
         <v>26</v>
       </c>
     </row>
@@ -17579,7 +17596,7 @@
         <v>27.6</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O17" si="5">O8+0.5</f>
+        <f t="shared" ref="O9" si="5">O8+0.5</f>
         <v>27</v>
       </c>
     </row>
@@ -17680,7 +17697,7 @@
         <v>27.6</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O17" si="6">O10+0.5</f>
+        <f t="shared" ref="O11" si="6">O10+0.5</f>
         <v>28</v>
       </c>
     </row>
@@ -17781,7 +17798,7 @@
         <v>27.5</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O17" si="7">O12+0.5</f>
+        <f t="shared" ref="O13" si="7">O12+0.5</f>
         <v>29</v>
       </c>
     </row>
@@ -17882,7 +17899,7 @@
         <v>27.4</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15:O17" si="8">O14+0.5</f>
+        <f t="shared" ref="O15" si="8">O14+0.5</f>
         <v>30</v>
       </c>
     </row>
@@ -30384,13 +30401,9223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
+      <c r="A2" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="F2" s="9">
+        <f>B2-$A2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SQRT(SUMSQ(F2:F279)/COUNT(F2:F279))</f>
+        <v>0.11272790793515507</v>
+      </c>
+      <c r="H2" s="9">
+        <f>C2-$A2</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="I2" s="8">
+        <f>SQRT(SUMSQ(H2:H279)/COUNT(H2:H279))</f>
+        <v>0.73428174094842702</v>
+      </c>
+      <c r="J2" s="9">
+        <f>D2-$A2</f>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="K2" s="8">
+        <f>SQRT(SUMSQ(J2:J279)/COUNT(J2:J279))</f>
+        <v>1.6839977361775949</v>
+      </c>
+      <c r="L2" s="9">
+        <f>E2-$A2</f>
+        <v>-0.40000000000000213</v>
+      </c>
+      <c r="M2" s="8">
+        <f>SQRT(SUMSQ(L2:L279)/COUNT(L2:L279))</f>
+        <v>0.47546291332706325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F66" si="0">B3-$A3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H66" si="1">C3-$A3</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J66" si="2">D3-$A3</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L66" si="3">E3-$A3</f>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000021</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000021</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>27.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000021</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000021</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="B14" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C14" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B15" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B16" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="A18" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="C19" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="C20" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="C21" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
+      <c r="A22" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B22" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000021</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B23" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B24" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B25" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
+      <c r="A26" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B26" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B27" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="D27" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>25</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
+      <c r="A28" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B28" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="C28" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="D28" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>25</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75">
+      <c r="A29" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B29" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
+      <c r="A30" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="B30" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="D30" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
+      <c r="A31" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B31" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="C31" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B32" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
+      <c r="A33" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B33" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D33" s="7">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
+      <c r="A34" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B34" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C34" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D34" s="7">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
+      <c r="A35" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B35" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D35" s="7">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75">
+      <c r="A36" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B36" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C36" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D36" s="7">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75">
+      <c r="A37" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B37" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D37" s="7">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75">
+      <c r="A38" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D38" s="7">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
+      <c r="A39" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C39" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D39" s="7">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>24.8</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75">
+      <c r="A40" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B40" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C40" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D40" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E40">
+        <v>24.9</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
+      <c r="A41" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B41" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C41" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D41" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E41">
+        <v>24.9</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
+      <c r="A42" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B42" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C42" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D42" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E42">
+        <v>24.8</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
+      <c r="A43" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B43" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D43" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E43">
+        <v>24.8</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75">
+      <c r="A44" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B44" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C44" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D44" s="7">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>24.8</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
+      <c r="A45" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B45" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D45" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E45">
+        <v>24.8</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="B46" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="C46" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D46" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E46">
+        <v>24.8</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
+      <c r="A47" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B47" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="C47" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D47" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E47">
+        <v>24.8</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75">
+      <c r="A48" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B48" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="C48" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="D48" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E48">
+        <v>24.8</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
+      <c r="A49" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B49" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="C49" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="D49" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E49">
+        <v>24.8</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
+      <c r="A50" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B50" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="C50" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="D50" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E50">
+        <v>24.7</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
+      <c r="A51" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B51" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="C51" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="D51" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E51">
+        <v>24.7</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75">
+      <c r="A52" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B52" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C52" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="D52" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E52">
+        <v>24.7</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H52" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75">
+      <c r="A53" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B53" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C53" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="D53" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E53">
+        <v>24.7</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
+      <c r="A54" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B54" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D54" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E54">
+        <v>24.7</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L54" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75">
+      <c r="A55" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="B55" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C55" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D55" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E55">
+        <v>24.7</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H55" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75">
+      <c r="A56" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B56" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C56" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D56" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E56">
+        <v>24.7</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L56" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75">
+      <c r="A57" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B57" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D57" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E57">
+        <v>24.6</v>
+      </c>
+      <c r="F57" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L57" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
+      <c r="A58" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B58" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C58" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D58" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E58">
+        <v>24.6</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L58" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
+      <c r="A59" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B59" s="7">
+        <v>25</v>
+      </c>
+      <c r="C59" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D59" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E59">
+        <v>24.6</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75">
+      <c r="A60" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B60" s="7">
+        <v>25</v>
+      </c>
+      <c r="C60" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D60" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E60">
+        <v>24.6</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L60" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75">
+      <c r="A61" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B61" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C61" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D61" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E61">
+        <v>24.6</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L61" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75">
+      <c r="A62" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B62" s="7">
+        <v>25</v>
+      </c>
+      <c r="C62" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D62" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E62">
+        <v>24.6</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H62" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L62" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75">
+      <c r="A63" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B63" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C63" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D63" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E63">
+        <v>24.6</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L63" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75">
+      <c r="A64" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B64" s="7">
+        <v>25</v>
+      </c>
+      <c r="C64" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D64" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E64">
+        <v>24.6</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H64" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L64" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75">
+      <c r="A65" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B65" s="7">
+        <v>25</v>
+      </c>
+      <c r="C65" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D65" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E65">
+        <v>24.6</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H65" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J65" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L65" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75">
+      <c r="A66" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B66" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C66" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D66" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E66">
+        <v>24.6</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L66" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75">
+      <c r="A67" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B67" s="7">
+        <v>25</v>
+      </c>
+      <c r="C67" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D67" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E67">
+        <v>24.6</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" ref="F67:F130" si="4">B67-$A67</f>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H67" s="9">
+        <f t="shared" ref="H67:H130" si="5">C67-$A67</f>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J67" s="9">
+        <f t="shared" ref="J67:J130" si="6">D67-$A67</f>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L67" s="9">
+        <f t="shared" ref="L67:L130" si="7">E67-$A67</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75">
+      <c r="A68" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B68" s="7">
+        <v>25</v>
+      </c>
+      <c r="C68" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D68" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E68">
+        <v>24.6</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H68" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L68" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75">
+      <c r="A69" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B69" s="7">
+        <v>25</v>
+      </c>
+      <c r="C69" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D69" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E69">
+        <v>24.6</v>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H69" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L69" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
+      <c r="A70" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>25</v>
+      </c>
+      <c r="C70" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D70" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E70">
+        <v>24.6</v>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H70" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75">
+      <c r="A71" s="1">
+        <v>25</v>
+      </c>
+      <c r="B71" s="7">
+        <v>25</v>
+      </c>
+      <c r="C71" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D71" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E71">
+        <v>24.6</v>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J71" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L71" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75">
+      <c r="A72" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B72" s="7">
+        <v>25</v>
+      </c>
+      <c r="C72" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D72" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E72">
+        <v>24.6</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H72" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J72" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75">
+      <c r="A73" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B73" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C73" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D73" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E73">
+        <v>24.6</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75">
+      <c r="A74" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B74" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C74" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D74" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E74">
+        <v>24.6</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75">
+      <c r="A75" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B75" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C75" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D75" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E75">
+        <v>24.6</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L75" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75">
+      <c r="A76" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B76" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C76" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D76" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E76">
+        <v>24.6</v>
+      </c>
+      <c r="F76" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L76" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75">
+      <c r="A77" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B77" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C77" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D77" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E77">
+        <v>24.6</v>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L77" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75">
+      <c r="A78" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B78" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C78" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D78" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E78">
+        <v>24.6</v>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L78" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75">
+      <c r="A79" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B79" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D79" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E79">
+        <v>24.6</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J79" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L79" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75">
+      <c r="A80" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B80" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C80" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="D80" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E80">
+        <v>24.6</v>
+      </c>
+      <c r="F80" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L80" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75">
+      <c r="A81" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B81" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C81" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D81" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E81">
+        <v>24.6</v>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J81" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L81" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75">
+      <c r="A82" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B82" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C82" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D82" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E82">
+        <v>24.6</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J82" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L82" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75">
+      <c r="A83" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B83" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C83" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D83" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E83">
+        <v>24.6</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J83" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L83" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75">
+      <c r="A84" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B84" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C84" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D84" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E84">
+        <v>24.6</v>
+      </c>
+      <c r="F84" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J84" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L84" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75">
+      <c r="A85" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B85" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C85" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D85" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E85">
+        <v>24.6</v>
+      </c>
+      <c r="F85" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J85" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L85" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75">
+      <c r="A86" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B86" s="7">
+        <v>25</v>
+      </c>
+      <c r="C86" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D86" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E86">
+        <v>24.6</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H86" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L86" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75">
+      <c r="A87" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B87" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="C87" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D87" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E87">
+        <v>24.6</v>
+      </c>
+      <c r="F87" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J87" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L87" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75">
+      <c r="A88" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B88" s="7">
+        <v>25</v>
+      </c>
+      <c r="C88" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D88" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E88">
+        <v>24.6</v>
+      </c>
+      <c r="F88" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H88" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L88" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75">
+      <c r="A89" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B89" s="7">
+        <v>25</v>
+      </c>
+      <c r="C89" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D89" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="E89">
+        <v>24.6</v>
+      </c>
+      <c r="F89" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H89" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J89" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L89" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75">
+      <c r="A90" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B90" s="7">
+        <v>25</v>
+      </c>
+      <c r="C90" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D90" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E90">
+        <v>24.6</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H90" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J90" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L90" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75">
+      <c r="A91" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="B91" s="7">
+        <v>25</v>
+      </c>
+      <c r="C91" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D91" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E91">
+        <v>24.6</v>
+      </c>
+      <c r="F91" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H91" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J91" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L91" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75">
+      <c r="A92" s="1">
+        <v>25</v>
+      </c>
+      <c r="B92" s="7">
+        <v>25</v>
+      </c>
+      <c r="C92" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D92" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E92">
+        <v>24.6</v>
+      </c>
+      <c r="F92" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J92" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L92" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75">
+      <c r="A93" s="1">
+        <v>25</v>
+      </c>
+      <c r="B93" s="7">
+        <v>25</v>
+      </c>
+      <c r="C93" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D93" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E93">
+        <v>24.6</v>
+      </c>
+      <c r="F93" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J93" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L93" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75">
+      <c r="A94" s="1">
+        <v>25</v>
+      </c>
+      <c r="B94" s="7">
+        <v>25</v>
+      </c>
+      <c r="C94" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D94" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E94">
+        <v>24.6</v>
+      </c>
+      <c r="F94" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J94" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L94" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75">
+      <c r="A95" s="1">
+        <v>25</v>
+      </c>
+      <c r="B95" s="7">
+        <v>25</v>
+      </c>
+      <c r="C95" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D95" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E95">
+        <v>24.5</v>
+      </c>
+      <c r="F95" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J95" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L95" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75">
+      <c r="A96" s="1">
+        <v>25</v>
+      </c>
+      <c r="B96" s="7">
+        <v>25</v>
+      </c>
+      <c r="C96" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D96" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E96">
+        <v>24.5</v>
+      </c>
+      <c r="F96" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J96" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L96" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75">
+      <c r="A97" s="1">
+        <v>25</v>
+      </c>
+      <c r="B97" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C97" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D97" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E97">
+        <v>24.5</v>
+      </c>
+      <c r="F97" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H97" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J97" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L97" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75">
+      <c r="A98" s="1">
+        <v>25</v>
+      </c>
+      <c r="B98" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C98" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D98" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E98">
+        <v>24.5</v>
+      </c>
+      <c r="F98" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H98" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J98" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L98" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75">
+      <c r="A99" s="1">
+        <v>25</v>
+      </c>
+      <c r="B99" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C99" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D99" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E99">
+        <v>24.5</v>
+      </c>
+      <c r="F99" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H99" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J99" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L99" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75">
+      <c r="A100" s="1">
+        <v>25</v>
+      </c>
+      <c r="B100" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C100" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D100" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E100">
+        <v>24.5</v>
+      </c>
+      <c r="F100" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H100" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J100" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L100" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75">
+      <c r="A101" s="1">
+        <v>25</v>
+      </c>
+      <c r="B101" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C101" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D101" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E101">
+        <v>24.5</v>
+      </c>
+      <c r="F101" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H101" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J101" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L101" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75">
+      <c r="A102" s="1">
+        <v>25</v>
+      </c>
+      <c r="B102" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C102" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D102" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E102">
+        <v>24.5</v>
+      </c>
+      <c r="F102" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H102" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L102" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75">
+      <c r="A103" s="1">
+        <v>25</v>
+      </c>
+      <c r="B103" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C103" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D103" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E103">
+        <v>24.5</v>
+      </c>
+      <c r="F103" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H103" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J103" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L103" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75">
+      <c r="A104" s="1">
+        <v>25</v>
+      </c>
+      <c r="B104" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C104" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D104" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E104">
+        <v>24.5</v>
+      </c>
+      <c r="F104" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H104" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L104" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75">
+      <c r="A105" s="1">
+        <v>25</v>
+      </c>
+      <c r="B105" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C105" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D105" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E105">
+        <v>24.5</v>
+      </c>
+      <c r="F105" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H105" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J105" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L105" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75">
+      <c r="A106" s="1">
+        <v>25</v>
+      </c>
+      <c r="B106" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C106" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D106" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E106">
+        <v>24.4</v>
+      </c>
+      <c r="F106" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H106" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J106" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L106" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75">
+      <c r="A107" s="1">
+        <v>25</v>
+      </c>
+      <c r="B107" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C107" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D107" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E107">
+        <v>24.4</v>
+      </c>
+      <c r="F107" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H107" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J107" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L107" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75">
+      <c r="A108" s="1">
+        <v>25</v>
+      </c>
+      <c r="B108" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C108" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D108" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E108">
+        <v>24.4</v>
+      </c>
+      <c r="F108" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H108" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L108" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75">
+      <c r="A109" s="1">
+        <v>25</v>
+      </c>
+      <c r="B109" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C109" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D109" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E109">
+        <v>24.4</v>
+      </c>
+      <c r="F109" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H109" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J109" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L109" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15.75">
+      <c r="A110" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B110" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C110" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D110" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E110">
+        <v>24.4</v>
+      </c>
+      <c r="F110" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J110" s="9">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L110" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.75">
+      <c r="A111" s="1">
+        <v>25</v>
+      </c>
+      <c r="B111" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C111" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D111" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E111">
+        <v>24.4</v>
+      </c>
+      <c r="F111" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H111" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J111" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L111" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75">
+      <c r="A112" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B112" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C112" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D112" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E112">
+        <v>24.4</v>
+      </c>
+      <c r="F112" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H112" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J112" s="9">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L112" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.75">
+      <c r="A113" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B113" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C113" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D113" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E113">
+        <v>24.4</v>
+      </c>
+      <c r="F113" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H113" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J113" s="9">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L113" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.75">
+      <c r="A114" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B114" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C114" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D114" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E114">
+        <v>24.4</v>
+      </c>
+      <c r="F114" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H114" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J114" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L114" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75">
+      <c r="A115" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B115" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C115" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D115" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E115">
+        <v>24.4</v>
+      </c>
+      <c r="F115" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H115" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J115" s="9">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L115" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.75">
+      <c r="A116" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B116" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C116" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="D116" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E116">
+        <v>24.4</v>
+      </c>
+      <c r="F116" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H116" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J116" s="9">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L116" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75">
+      <c r="A117" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B117" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C117" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D117" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E117">
+        <v>24.4</v>
+      </c>
+      <c r="F117" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H117" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J117" s="9">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L117" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75">
+      <c r="A118" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B118" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C118" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D118" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E118">
+        <v>24.4</v>
+      </c>
+      <c r="F118" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H118" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J118" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L118" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75">
+      <c r="A119" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B119" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C119" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D119" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E119">
+        <v>24.4</v>
+      </c>
+      <c r="F119" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H119" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J119" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L119" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75">
+      <c r="A120" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B120" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C120" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D120" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E120">
+        <v>24.4</v>
+      </c>
+      <c r="F120" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H120" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J120" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L120" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.75">
+      <c r="A121" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B121" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C121" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D121" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E121">
+        <v>24.4</v>
+      </c>
+      <c r="F121" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H121" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J121" s="9">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L121" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.75">
+      <c r="A122" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B122" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C122" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D122" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E122">
+        <v>24.4</v>
+      </c>
+      <c r="F122" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H122" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J122" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L122" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15.75">
+      <c r="A123" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B123" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C123" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D123" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E123">
+        <v>24.4</v>
+      </c>
+      <c r="F123" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H123" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J123" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L123" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.75">
+      <c r="A124" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B124" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C124" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D124" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E124">
+        <v>24.4</v>
+      </c>
+      <c r="F124" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H124" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J124" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L124" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75">
+      <c r="A125" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B125" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C125" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D125" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E125">
+        <v>24.3</v>
+      </c>
+      <c r="F125" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H125" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J125" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L125" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75">
+      <c r="A126" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B126" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C126" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D126" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E126">
+        <v>24.3</v>
+      </c>
+      <c r="F126" s="9">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H126" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J126" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L126" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75">
+      <c r="A127" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B127" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C127" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D127" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E127">
+        <v>24.3</v>
+      </c>
+      <c r="F127" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J127" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L127" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15.75">
+      <c r="A128" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B128" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C128" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D128" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E128">
+        <v>24.3</v>
+      </c>
+      <c r="F128" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J128" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L128" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.75">
+      <c r="A129" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B129" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C129" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D129" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E129">
+        <v>24.3</v>
+      </c>
+      <c r="F129" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J129" s="9">
+        <f t="shared" si="6"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L129" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15.75">
+      <c r="A130" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B130" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C130" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D130" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E130">
+        <v>24.3</v>
+      </c>
+      <c r="F130" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H130" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J130" s="9">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L130" s="9">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15.75">
+      <c r="A131" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B131" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C131" s="7">
+        <v>24</v>
+      </c>
+      <c r="D131" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E131">
+        <v>24.3</v>
+      </c>
+      <c r="F131" s="9">
+        <f t="shared" ref="F131:F194" si="8">B131-$A131</f>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H131" s="9">
+        <f t="shared" ref="H131:H194" si="9">C131-$A131</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J131" s="9">
+        <f t="shared" ref="J131:J194" si="10">D131-$A131</f>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L131" s="9">
+        <f t="shared" ref="L131:L194" si="11">E131-$A131</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15.75">
+      <c r="A132" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B132" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C132" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D132" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E132">
+        <v>24.3</v>
+      </c>
+      <c r="F132" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H132" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J132" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L132" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15.75">
+      <c r="A133" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B133" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C133" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D133" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E133">
+        <v>24.3</v>
+      </c>
+      <c r="F133" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H133" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J133" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L133" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15.75">
+      <c r="A134" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B134" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C134" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D134" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E134">
+        <v>24.3</v>
+      </c>
+      <c r="F134" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H134" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J134" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L134" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.75">
+      <c r="A135" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B135" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C135" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D135" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E135">
+        <v>24.3</v>
+      </c>
+      <c r="F135" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H135" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J135" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L135" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.75">
+      <c r="A136" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B136" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C136" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D136" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E136">
+        <v>24.3</v>
+      </c>
+      <c r="F136" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H136" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J136" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L136" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.75">
+      <c r="A137" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B137" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C137" s="7">
+        <v>24</v>
+      </c>
+      <c r="D137" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E137">
+        <v>24.3</v>
+      </c>
+      <c r="F137" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H137" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J137" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L137" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.75">
+      <c r="A138" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B138" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C138" s="7">
+        <v>24</v>
+      </c>
+      <c r="D138" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E138">
+        <v>24.3</v>
+      </c>
+      <c r="F138" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H138" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J138" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L138" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75">
+      <c r="A139" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B139" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C139" s="7">
+        <v>24</v>
+      </c>
+      <c r="D139" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E139">
+        <v>24.3</v>
+      </c>
+      <c r="F139" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H139" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J139" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L139" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75">
+      <c r="A140" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B140" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C140" s="7">
+        <v>24</v>
+      </c>
+      <c r="D140" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E140">
+        <v>24.3</v>
+      </c>
+      <c r="F140" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H140" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J140" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L140" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.75">
+      <c r="A141" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B141" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C141" s="7">
+        <v>24</v>
+      </c>
+      <c r="D141" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E141">
+        <v>24.2</v>
+      </c>
+      <c r="F141" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H141" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J141" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L141" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.75">
+      <c r="A142" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B142" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C142" s="7">
+        <v>24</v>
+      </c>
+      <c r="D142" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E142">
+        <v>24.3</v>
+      </c>
+      <c r="F142" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H142" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J142" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L142" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15.75">
+      <c r="A143" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B143" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C143" s="7">
+        <v>24</v>
+      </c>
+      <c r="D143" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E143">
+        <v>24.2</v>
+      </c>
+      <c r="F143" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H143" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J143" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L143" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.75">
+      <c r="A144" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B144" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C144" s="7">
+        <v>24</v>
+      </c>
+      <c r="D144" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E144">
+        <v>24.2</v>
+      </c>
+      <c r="F144" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H144" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J144" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L144" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.75">
+      <c r="A145" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B145" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C145" s="7">
+        <v>24</v>
+      </c>
+      <c r="D145" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E145">
+        <v>24.2</v>
+      </c>
+      <c r="F145" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H145" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J145" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L145" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.75">
+      <c r="A146" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B146" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C146" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D146" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E146">
+        <v>24.2</v>
+      </c>
+      <c r="F146" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H146" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.90000000000000213</v>
+      </c>
+      <c r="J146" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L146" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75">
+      <c r="A147" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B147" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C147" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D147" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E147">
+        <v>24.2</v>
+      </c>
+      <c r="F147" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H147" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J147" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L147" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15.75">
+      <c r="A148" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B148" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C148" s="7">
+        <v>24</v>
+      </c>
+      <c r="D148" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E148">
+        <v>24.2</v>
+      </c>
+      <c r="F148" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H148" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J148" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L148" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15.75">
+      <c r="A149" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B149" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C149" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D149" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E149">
+        <v>24.2</v>
+      </c>
+      <c r="F149" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H149" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J149" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L149" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15.75">
+      <c r="A150" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B150" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C150" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D150" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E150">
+        <v>24.2</v>
+      </c>
+      <c r="F150" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H150" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J150" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L150" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.75">
+      <c r="A151" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B151" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C151" s="7">
+        <v>24</v>
+      </c>
+      <c r="D151" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E151">
+        <v>24.2</v>
+      </c>
+      <c r="F151" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H151" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J151" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L151" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15.75">
+      <c r="A152" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B152" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C152" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D152" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E152">
+        <v>24.2</v>
+      </c>
+      <c r="F152" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H152" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J152" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L152" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15.75">
+      <c r="A153" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B153" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C153" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D153" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E153">
+        <v>24.2</v>
+      </c>
+      <c r="F153" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H153" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J153" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L153" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15.75">
+      <c r="A154" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B154" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C154" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D154" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E154">
+        <v>24.2</v>
+      </c>
+      <c r="F154" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H154" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J154" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L154" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="15.75">
+      <c r="A155" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B155" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C155" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D155" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E155">
+        <v>24.2</v>
+      </c>
+      <c r="F155" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H155" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J155" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L155" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15.75">
+      <c r="A156" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B156" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C156" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D156" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E156">
+        <v>24.2</v>
+      </c>
+      <c r="F156" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H156" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J156" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L156" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="15.75">
+      <c r="A157" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B157" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C157" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D157" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E157">
+        <v>24.2</v>
+      </c>
+      <c r="F157" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H157" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J157" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L157" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="15.75">
+      <c r="A158" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B158" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C158" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D158" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E158">
+        <v>24.2</v>
+      </c>
+      <c r="F158" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H158" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J158" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L158" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15.75">
+      <c r="A159" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B159" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C159" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D159" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E159">
+        <v>24.2</v>
+      </c>
+      <c r="F159" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H159" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J159" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L159" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15.75">
+      <c r="A160" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B160" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C160" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D160" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E160">
+        <v>24.2</v>
+      </c>
+      <c r="F160" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H160" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J160" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L160" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15.75">
+      <c r="A161" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B161" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C161" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D161" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E161">
+        <v>24.1</v>
+      </c>
+      <c r="F161" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H161" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J161" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L161" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="15.75">
+      <c r="A162" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B162" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C162" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D162" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E162">
+        <v>24.2</v>
+      </c>
+      <c r="F162" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H162" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J162" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L162" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="15.75">
+      <c r="A163" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B163" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C163" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D163" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E163">
+        <v>24.1</v>
+      </c>
+      <c r="F163" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H163" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J163" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L163" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="15.75">
+      <c r="A164" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B164" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C164" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D164" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E164">
+        <v>24.1</v>
+      </c>
+      <c r="F164" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H164" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J164" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L164" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15.75">
+      <c r="A165" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B165" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C165" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D165" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E165">
+        <v>24.1</v>
+      </c>
+      <c r="F165" s="9">
+        <f t="shared" si="8"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H165" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J165" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L165" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15.75">
+      <c r="A166" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B166" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C166" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D166" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E166">
+        <v>24.1</v>
+      </c>
+      <c r="F166" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H166" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J166" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L166" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15.75">
+      <c r="A167" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B167" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C167" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D167" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E167">
+        <v>24.1</v>
+      </c>
+      <c r="F167" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H167" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J167" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="L167" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.75">
+      <c r="A168" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B168" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C168" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D168" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E168">
+        <v>24.1</v>
+      </c>
+      <c r="F168" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H168" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J168" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L168" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15.75">
+      <c r="A169" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B169" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C169" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D169" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E169">
+        <v>24.1</v>
+      </c>
+      <c r="F169" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H169" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J169" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L169" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15.75">
+      <c r="A170" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B170" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C170" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D170" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E170">
+        <v>24.1</v>
+      </c>
+      <c r="F170" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H170" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J170" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L170" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15.75">
+      <c r="A171" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B171" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C171" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D171" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E171">
+        <v>24.1</v>
+      </c>
+      <c r="F171" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H171" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J171" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L171" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.75">
+      <c r="A172" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B172" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C172" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D172" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E172">
+        <v>24.1</v>
+      </c>
+      <c r="F172" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H172" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J172" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L172" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="15.75">
+      <c r="A173" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B173" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C173" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D173" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E173">
+        <v>24.1</v>
+      </c>
+      <c r="F173" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H173" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J173" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L173" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="15.75">
+      <c r="A174" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B174" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C174" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D174" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E174">
+        <v>24.1</v>
+      </c>
+      <c r="F174" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H174" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J174" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L174" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="15.75">
+      <c r="A175" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B175" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C175" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D175" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E175">
+        <v>24.1</v>
+      </c>
+      <c r="F175" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H175" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J175" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L175" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15.75">
+      <c r="A176" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B176" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C176" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D176" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E176">
+        <v>24.1</v>
+      </c>
+      <c r="F176" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H176" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J176" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L176" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15.75">
+      <c r="A177" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B177" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C177" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D177" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E177">
+        <v>24.1</v>
+      </c>
+      <c r="F177" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H177" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J177" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L177" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15.75">
+      <c r="A178" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B178" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C178" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D178" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E178">
+        <v>24</v>
+      </c>
+      <c r="F178" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H178" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J178" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L178" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="15.75">
+      <c r="A179" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B179" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C179" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D179" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E179">
+        <v>24.1</v>
+      </c>
+      <c r="F179" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H179" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J179" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L179" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15.75">
+      <c r="A180" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B180" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C180" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D180" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E180">
+        <v>24</v>
+      </c>
+      <c r="F180" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H180" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J180" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L180" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15.75">
+      <c r="A181" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B181" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C181" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D181" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E181">
+        <v>24</v>
+      </c>
+      <c r="F181" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H181" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J181" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L181" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="15.75">
+      <c r="A182" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B182" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C182" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D182" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E182">
+        <v>24</v>
+      </c>
+      <c r="F182" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H182" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J182" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L182" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="15.75">
+      <c r="A183" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B183" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C183" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D183" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E183">
+        <v>24</v>
+      </c>
+      <c r="F183" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H183" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J183" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L183" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15.75">
+      <c r="A184" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B184" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C184" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D184" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E184">
+        <v>24</v>
+      </c>
+      <c r="F184" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H184" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J184" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L184" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15.75">
+      <c r="A185" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B185" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C185" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D185" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E185">
+        <v>24</v>
+      </c>
+      <c r="F185" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="H185" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J185" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="L185" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15.75">
+      <c r="A186" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B186" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C186" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D186" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E186">
+        <v>24</v>
+      </c>
+      <c r="F186" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H186" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J186" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L186" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15.75">
+      <c r="A187" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B187" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C187" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D187" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E187">
+        <v>24</v>
+      </c>
+      <c r="F187" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="H187" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J187" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="L187" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15.75">
+      <c r="A188" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B188" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C188" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D188" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E188">
+        <v>24</v>
+      </c>
+      <c r="F188" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H188" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J188" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L188" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15.75">
+      <c r="A189" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B189" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C189" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D189" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E189">
+        <v>24</v>
+      </c>
+      <c r="F189" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H189" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J189" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L189" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15.75">
+      <c r="A190" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B190" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C190" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D190" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E190">
+        <v>24</v>
+      </c>
+      <c r="F190" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H190" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J190" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L190" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15.75">
+      <c r="A191" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B191" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C191" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D191" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E191">
+        <v>24</v>
+      </c>
+      <c r="F191" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H191" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J191" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L191" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15.75">
+      <c r="A192" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B192" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C192" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D192" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E192">
+        <v>24</v>
+      </c>
+      <c r="F192" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H192" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J192" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L192" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="15.75">
+      <c r="A193" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B193" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C193" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D193" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E193">
+        <v>24</v>
+      </c>
+      <c r="F193" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H193" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J193" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L193" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="15.75">
+      <c r="A194" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B194" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C194" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D194" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E194">
+        <v>24</v>
+      </c>
+      <c r="F194" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H194" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J194" s="9">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L194" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="15.75">
+      <c r="A195" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B195" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C195" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D195" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E195">
+        <v>24</v>
+      </c>
+      <c r="F195" s="9">
+        <f t="shared" ref="F195:F258" si="12">B195-$A195</f>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H195" s="9">
+        <f t="shared" ref="H195:H258" si="13">C195-$A195</f>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J195" s="9">
+        <f t="shared" ref="J195:J258" si="14">D195-$A195</f>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L195" s="9">
+        <f t="shared" ref="L195:L258" si="15">E195-$A195</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="15.75">
+      <c r="A196" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B196" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C196" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D196" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E196">
+        <v>24</v>
+      </c>
+      <c r="F196" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H196" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J196" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L196" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="15.75">
+      <c r="A197" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B197" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C197" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D197" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E197">
+        <v>23.9</v>
+      </c>
+      <c r="F197" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H197" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J197" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L197" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15.75">
+      <c r="A198" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B198" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C198" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D198" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E198">
+        <v>23.9</v>
+      </c>
+      <c r="F198" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H198" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J198" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L198" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="15.75">
+      <c r="A199" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B199" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C199" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D199" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E199">
+        <v>23.9</v>
+      </c>
+      <c r="F199" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H199" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J199" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L199" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="15.75">
+      <c r="A200" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B200" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C200" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D200" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E200">
+        <v>23.9</v>
+      </c>
+      <c r="F200" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H200" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J200" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L200" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="15.75">
+      <c r="A201" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B201" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C201" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D201" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E201">
+        <v>23.9</v>
+      </c>
+      <c r="F201" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H201" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J201" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L201" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="15.75">
+      <c r="A202" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B202" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C202" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D202" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E202">
+        <v>23.9</v>
+      </c>
+      <c r="F202" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H202" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J202" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L202" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="15.75">
+      <c r="A203" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B203" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C203" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D203" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E203">
+        <v>23.9</v>
+      </c>
+      <c r="F203" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H203" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J203" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L203" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="15.75">
+      <c r="A204" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B204" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C204" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D204" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E204">
+        <v>23.9</v>
+      </c>
+      <c r="F204" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H204" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J204" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L204" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="15.75">
+      <c r="A205" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B205" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C205" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D205" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E205">
+        <v>23.9</v>
+      </c>
+      <c r="F205" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H205" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J205" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L205" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="15.75">
+      <c r="A206" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B206" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C206" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D206" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E206">
+        <v>23.9</v>
+      </c>
+      <c r="F206" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H206" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J206" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L206" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="15.75">
+      <c r="A207" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B207" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C207" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D207" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E207">
+        <v>23.9</v>
+      </c>
+      <c r="F207" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H207" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J207" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L207" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="15.75">
+      <c r="A208" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B208" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C208" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D208" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E208">
+        <v>23.9</v>
+      </c>
+      <c r="F208" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H208" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J208" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L208" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15.75">
+      <c r="A209" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B209" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C209" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D209" s="7">
+        <v>26</v>
+      </c>
+      <c r="E209">
+        <v>23.9</v>
+      </c>
+      <c r="F209" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H209" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J209" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L209" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="15.75">
+      <c r="A210" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B210" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C210" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D210" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E210">
+        <v>23.9</v>
+      </c>
+      <c r="F210" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H210" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J210" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L210" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="15.75">
+      <c r="A211" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B211" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C211" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D211" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E211">
+        <v>23.9</v>
+      </c>
+      <c r="F211" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H211" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J211" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L211" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15.75">
+      <c r="A212" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B212" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C212" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D212" s="7">
+        <v>26</v>
+      </c>
+      <c r="E212">
+        <v>23.9</v>
+      </c>
+      <c r="F212" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H212" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J212" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L212" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="15.75">
+      <c r="A213" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B213" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C213" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D213" s="7">
+        <v>26</v>
+      </c>
+      <c r="E213">
+        <v>23.9</v>
+      </c>
+      <c r="F213" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H213" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J213" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L213" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="15.75">
+      <c r="A214" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B214" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C214" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D214" s="7">
+        <v>26</v>
+      </c>
+      <c r="E214">
+        <v>23.9</v>
+      </c>
+      <c r="F214" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H214" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J214" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L214" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="15.75">
+      <c r="A215" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B215" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C215" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D215" s="7">
+        <v>26</v>
+      </c>
+      <c r="E215">
+        <v>23.9</v>
+      </c>
+      <c r="F215" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H215" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J215" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L215" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="15.75">
+      <c r="A216" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B216" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C216" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D216" s="7">
+        <v>26</v>
+      </c>
+      <c r="E216">
+        <v>23.8</v>
+      </c>
+      <c r="F216" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H216" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J216" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L216" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="15.75">
+      <c r="A217" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B217" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C217" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D217" s="7">
+        <v>26</v>
+      </c>
+      <c r="E217">
+        <v>23.8</v>
+      </c>
+      <c r="F217" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H217" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J217" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L217" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="15.75">
+      <c r="A218" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B218" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C218" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D218" s="7">
+        <v>26</v>
+      </c>
+      <c r="E218">
+        <v>23.8</v>
+      </c>
+      <c r="F218" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H218" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J218" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L218" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="15.75">
+      <c r="A219" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B219" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C219" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D219" s="7">
+        <v>26</v>
+      </c>
+      <c r="E219">
+        <v>23.8</v>
+      </c>
+      <c r="F219" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H219" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J219" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L219" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="15.75">
+      <c r="A220" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B220" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C220" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D220" s="7">
+        <v>26</v>
+      </c>
+      <c r="E220">
+        <v>23.8</v>
+      </c>
+      <c r="F220" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H220" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J220" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L220" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="15.75">
+      <c r="A221" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B221" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C221" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D221" s="7">
+        <v>26</v>
+      </c>
+      <c r="E221">
+        <v>23.8</v>
+      </c>
+      <c r="F221" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H221" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J221" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L221" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="15.75">
+      <c r="A222" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B222" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C222" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D222" s="7">
+        <v>26</v>
+      </c>
+      <c r="E222">
+        <v>23.8</v>
+      </c>
+      <c r="F222" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H222" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J222" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L222" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="15.75">
+      <c r="A223" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B223" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C223" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D223" s="7">
+        <v>26</v>
+      </c>
+      <c r="E223">
+        <v>23.8</v>
+      </c>
+      <c r="F223" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H223" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J223" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L223" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="15.75">
+      <c r="A224" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B224" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C224" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D224" s="7">
+        <v>26</v>
+      </c>
+      <c r="E224">
+        <v>23.8</v>
+      </c>
+      <c r="F224" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H224" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J224" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L224" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="15.75">
+      <c r="A225" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B225" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C225" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D225" s="7">
+        <v>26</v>
+      </c>
+      <c r="E225">
+        <v>23.8</v>
+      </c>
+      <c r="F225" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H225" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J225" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L225" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="15.75">
+      <c r="A226" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B226" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C226" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D226" s="7">
+        <v>26</v>
+      </c>
+      <c r="E226">
+        <v>23.8</v>
+      </c>
+      <c r="F226" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H226" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J226" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L226" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="15.75">
+      <c r="A227" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B227" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C227" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D227" s="7">
+        <v>26</v>
+      </c>
+      <c r="E227">
+        <v>23.8</v>
+      </c>
+      <c r="F227" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H227" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J227" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L227" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="15.75">
+      <c r="A228" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B228" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C228" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D228" s="7">
+        <v>26</v>
+      </c>
+      <c r="E228">
+        <v>23.8</v>
+      </c>
+      <c r="F228" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H228" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J228" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L228" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="15.75">
+      <c r="A229" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B229" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C229" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D229" s="7">
+        <v>26</v>
+      </c>
+      <c r="E229">
+        <v>23.8</v>
+      </c>
+      <c r="F229" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H229" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J229" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L229" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="15.75">
+      <c r="A230" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B230" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C230" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D230" s="7">
+        <v>26</v>
+      </c>
+      <c r="E230">
+        <v>23.9</v>
+      </c>
+      <c r="F230" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H230" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J230" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="L230" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="15.75">
+      <c r="A231" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B231" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C231" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D231" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E231">
+        <v>23.9</v>
+      </c>
+      <c r="F231" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H231" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J231" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L231" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="15.75">
+      <c r="A232" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B232" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C232" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D232" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E232">
+        <v>23.9</v>
+      </c>
+      <c r="F232" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H232" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J232" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L232" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15.75">
+      <c r="A233" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B233" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C233" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D233" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E233">
+        <v>23.9</v>
+      </c>
+      <c r="F233" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H233" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J233" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L233" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="15.75">
+      <c r="A234" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B234" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C234" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D234" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E234">
+        <v>23.9</v>
+      </c>
+      <c r="F234" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H234" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="J234" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L234" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="15.75">
+      <c r="A235" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B235" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C235" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D235" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E235">
+        <v>23.9</v>
+      </c>
+      <c r="F235" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H235" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J235" s="9">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L235" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="15.75">
+      <c r="A236" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B236" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C236" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D236" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E236">
+        <v>24</v>
+      </c>
+      <c r="F236" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H236" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J236" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L236" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="15.75">
+      <c r="A237" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B237" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C237" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D237" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E237">
+        <v>24</v>
+      </c>
+      <c r="F237" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H237" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J237" s="9">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L237" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="15.75">
+      <c r="A238" s="1">
+        <v>24</v>
+      </c>
+      <c r="B238" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C238" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D238" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E238">
+        <v>24</v>
+      </c>
+      <c r="F238" s="9">
+        <f t="shared" si="12"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="H238" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="J238" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="L238" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="15.75">
+      <c r="A239" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="B239" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C239" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D239" s="7">
+        <v>26</v>
+      </c>
+      <c r="E239">
+        <v>23.9</v>
+      </c>
+      <c r="F239" s="9">
+        <f t="shared" si="12"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="H239" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="J239" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="L239" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="15.75">
+      <c r="A240" s="1">
+        <v>24</v>
+      </c>
+      <c r="B240" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C240" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D240" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E240">
+        <v>23.9</v>
+      </c>
+      <c r="F240" s="9">
+        <f t="shared" si="12"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H240" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="J240" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="L240" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="15.75">
+      <c r="A241" s="1">
+        <v>24</v>
+      </c>
+      <c r="B241" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C241" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D241" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E241">
+        <v>23.9</v>
+      </c>
+      <c r="F241" s="9">
+        <f t="shared" si="12"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H241" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="J241" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="L241" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="15.75">
+      <c r="A242" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="B242" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C242" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D242" s="7">
+        <v>26</v>
+      </c>
+      <c r="E242">
+        <v>23.9</v>
+      </c>
+      <c r="F242" s="9">
+        <f t="shared" si="12"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="H242" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="J242" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="L242" s="9">
+        <f t="shared" si="15"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="15.75">
+      <c r="A243" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="B243" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C243" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D243" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E243">
+        <v>23.9</v>
+      </c>
+      <c r="F243" s="9">
+        <f t="shared" si="12"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="H243" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="J243" s="9">
+        <f t="shared" si="14"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="L243" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="15.75">
+      <c r="A244" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="B244" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C244" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D244" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E244">
+        <v>23.9</v>
+      </c>
+      <c r="F244" s="9">
+        <f t="shared" si="12"/>
+        <v>0.40000000000000213</v>
+      </c>
+      <c r="H244" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="J244" s="9">
+        <f t="shared" si="14"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="L244" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="15.75">
+      <c r="A245" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B245" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="C245" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D245" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E245">
+        <v>24</v>
+      </c>
+      <c r="F245" s="9">
+        <f t="shared" si="12"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="H245" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J245" s="9">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="L245" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="15.75">
+      <c r="A246" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B246" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C246" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D246" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E246">
+        <v>24</v>
+      </c>
+      <c r="F246" s="9">
+        <f t="shared" si="12"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H246" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J246" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="L246" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="15.75">
+      <c r="A247" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B247" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C247" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D247" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E247">
+        <v>24.1</v>
+      </c>
+      <c r="F247" s="9">
+        <f t="shared" si="12"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="H247" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="J247" s="9">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="L247" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="15.75">
+      <c r="A248" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B248" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C248" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="D248" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E248">
+        <v>24.1</v>
+      </c>
+      <c r="F248" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H248" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J248" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L248" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="15.75">
+      <c r="A249" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B249" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C249" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D249" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E249">
+        <v>24.1</v>
+      </c>
+      <c r="F249" s="9">
+        <f t="shared" si="12"/>
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="H249" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J249" s="9">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="L249" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="15.75">
+      <c r="A250" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B250" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C250" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D250" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E250">
+        <v>24.1</v>
+      </c>
+      <c r="F250" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H250" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J250" s="9">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L250" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15.75">
+      <c r="A251" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B251" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C251" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D251" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E251">
+        <v>24.2</v>
+      </c>
+      <c r="F251" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H251" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J251" s="9">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L251" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="15.75">
+      <c r="A252" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B252" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C252" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D252" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E252">
+        <v>24.2</v>
+      </c>
+      <c r="F252" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H252" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="J252" s="9">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L252" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="15.75">
+      <c r="A253" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B253" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C253" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D253" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E253">
+        <v>24.2</v>
+      </c>
+      <c r="F253" s="9">
+        <f t="shared" si="12"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H253" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J253" s="9">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="L253" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="15.75">
+      <c r="A254" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B254" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C254" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D254" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E254">
+        <v>24.1</v>
+      </c>
+      <c r="F254" s="9">
+        <f t="shared" si="12"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H254" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="J254" s="9">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="L254" s="9">
+        <f t="shared" si="15"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="15.75">
+      <c r="A255" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="B255" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C255" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D255" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E255">
+        <v>24.1</v>
+      </c>
+      <c r="F255" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H255" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J255" s="9">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L255" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="15.75">
+      <c r="A256" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B256" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C256" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D256" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="E256">
+        <v>24</v>
+      </c>
+      <c r="F256" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H256" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="J256" s="9">
+        <f t="shared" si="14"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L256" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="15.75">
+      <c r="A257" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B257" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="C257" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D257" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="E257">
+        <v>23.8</v>
+      </c>
+      <c r="F257" s="9">
+        <f t="shared" si="12"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H257" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J257" s="9">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="L257" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="15.75">
+      <c r="A258" s="1">
+        <v>24</v>
+      </c>
+      <c r="B258" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="C258" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="D258" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="E258">
+        <v>23.7</v>
+      </c>
+      <c r="F258" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H258" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J258" s="9">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="L258" s="9">
+        <f t="shared" si="15"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="15.75">
+      <c r="A259" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="B259" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="C259" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D259" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="E259">
+        <v>23.6</v>
+      </c>
+      <c r="F259" s="9">
+        <f t="shared" ref="F259:F278" si="16">B259-$A259</f>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H259" s="9">
+        <f t="shared" ref="H259:H278" si="17">C259-$A259</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J259" s="9">
+        <f t="shared" ref="J259:J278" si="18">D259-$A259</f>
+        <v>1.5</v>
+      </c>
+      <c r="L259" s="9">
+        <f t="shared" ref="L259:L278" si="19">E259-$A259</f>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="15.75">
+      <c r="A260" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B260" s="7">
+        <v>24</v>
+      </c>
+      <c r="C260" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="D260" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="E260">
+        <v>23.8</v>
+      </c>
+      <c r="F260" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H260" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="J260" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="L260" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="15.75">
+      <c r="A261" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B261" s="7">
+        <v>24</v>
+      </c>
+      <c r="C261" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D261" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="E261">
+        <v>23.7</v>
+      </c>
+      <c r="F261" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H261" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J261" s="9">
+        <f t="shared" si="18"/>
+        <v>1.4000000000000021</v>
+      </c>
+      <c r="L261" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="15.75">
+      <c r="A262" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B262" s="7">
+        <v>24</v>
+      </c>
+      <c r="C262" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D262" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="E262">
+        <v>23.8</v>
+      </c>
+      <c r="F262" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H262" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J262" s="9">
+        <f t="shared" si="18"/>
+        <v>1.4000000000000021</v>
+      </c>
+      <c r="L262" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="15.75">
+      <c r="A263" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B263" s="7">
+        <v>24</v>
+      </c>
+      <c r="C263" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D263" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="E263">
+        <v>23.7</v>
+      </c>
+      <c r="F263" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H263" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J263" s="9">
+        <f t="shared" si="18"/>
+        <v>1.4000000000000021</v>
+      </c>
+      <c r="L263" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="15.75">
+      <c r="A264" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="B264" s="7">
+        <v>24</v>
+      </c>
+      <c r="C264" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D264" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="E264">
+        <v>23.7</v>
+      </c>
+      <c r="F264" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H264" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="J264" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L264" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="15.75">
+      <c r="A265" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B265" s="7">
+        <v>24</v>
+      </c>
+      <c r="C265" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D265" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="E265">
+        <v>23.7</v>
+      </c>
+      <c r="F265" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="H265" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.90000000000000213</v>
+      </c>
+      <c r="J265" s="9">
+        <f t="shared" si="18"/>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="L265" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="15.75">
+      <c r="A266" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B266" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="C266" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="D266" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="E266">
+        <v>23.8</v>
+      </c>
+      <c r="F266" s="9">
+        <f t="shared" si="16"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H266" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J266" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="L266" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="15.75">
+      <c r="A267" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="B267" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C267" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="D267" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="E267">
+        <v>23.9</v>
+      </c>
+      <c r="F267" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H267" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J267" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="L267" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="15.75">
+      <c r="A268" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="B268" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="C268" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D268" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="E268">
+        <v>23.8</v>
+      </c>
+      <c r="F268" s="9">
+        <f t="shared" si="16"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H268" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="J268" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="L268" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="15.75">
+      <c r="A269" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B269" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="C269" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="D269" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="E269">
+        <v>23.9</v>
+      </c>
+      <c r="F269" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="H269" s="9">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="J269" s="9">
+        <f t="shared" si="18"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="L269" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="15.75">
+      <c r="A270" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B270" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="C270" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="D270" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E270">
+        <v>24</v>
+      </c>
+      <c r="F270" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="H270" s="9">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="J270" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="L270" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="15.75">
+      <c r="A271" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B271" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C271" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D271" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E271">
+        <v>24.1</v>
+      </c>
+      <c r="F271" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H271" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J271" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L271" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="15.75">
+      <c r="A272" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B272" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C272" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D272" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E272">
+        <v>24.1</v>
+      </c>
+      <c r="F272" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H272" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J272" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="L272" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="15.75">
+      <c r="A273" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="B273" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="C273" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D273" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="E273">
+        <v>24</v>
+      </c>
+      <c r="F273" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H273" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="J273" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="L273" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="15.75">
+      <c r="A274" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="B274" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="C274" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="D274" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="E274">
+        <v>24.2</v>
+      </c>
+      <c r="F274" s="9">
+        <f t="shared" si="16"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H274" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="J274" s="9">
+        <f t="shared" si="18"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L274" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="15.75">
+      <c r="A275" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="B275" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="C275" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D275" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="E275">
+        <v>24.2</v>
+      </c>
+      <c r="F275" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H275" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.90000000000000213</v>
+      </c>
+      <c r="J275" s="9">
+        <f t="shared" si="18"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L275" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="15.75">
+      <c r="A276" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B276" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C276" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="D276" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="E276">
+        <v>24.3</v>
+      </c>
+      <c r="F276" s="9">
+        <f t="shared" si="16"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H276" s="9">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="J276" s="9">
+        <f t="shared" si="18"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="L276" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="15.75">
+      <c r="A277" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="B277" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="C277" s="7">
+        <v>24</v>
+      </c>
+      <c r="D277" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E277">
+        <v>24.4</v>
+      </c>
+      <c r="F277" s="9">
+        <f t="shared" si="16"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H277" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="J277" s="9">
+        <f t="shared" si="18"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="L277" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="15.75">
+      <c r="A278" s="1">
+        <v>25</v>
+      </c>
+      <c r="B278" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C278" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D278" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E278">
+        <v>24.4</v>
+      </c>
+      <c r="F278" s="9">
+        <f t="shared" si="16"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H278" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="J278" s="9">
+        <f t="shared" si="18"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="L278" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.60000000000000142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H2 J2" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
+++ b/Capitol carcteritzar nodes/Caracteritzacio sensors Temp/Dades/Grafiquess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -8846,11 +8846,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74208000"/>
-        <c:axId val="74210304"/>
+        <c:axId val="193874560"/>
+        <c:axId val="193893504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74208000"/>
+        <c:axId val="193874560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8880,12 +8880,12 @@
         </c:title>
         <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74210304"/>
+        <c:crossAx val="193893504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74210304"/>
+        <c:axId val="193893504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -8913,7 +8913,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74208000"/>
+        <c:crossAx val="193874560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8926,7 +8926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10792,11 +10792,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74248192"/>
-        <c:axId val="74250112"/>
+        <c:axId val="194135936"/>
+        <c:axId val="194138112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74248192"/>
+        <c:axId val="194135936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -10828,12 +10828,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74250112"/>
+        <c:crossAx val="194138112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74250112"/>
+        <c:axId val="194138112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -10861,7 +10861,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74248192"/>
+        <c:crossAx val="194135936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10874,7 +10874,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12740,11 +12740,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77040256"/>
-        <c:axId val="77050624"/>
+        <c:axId val="194253568"/>
+        <c:axId val="194255488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77040256"/>
+        <c:axId val="194253568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -12776,12 +12776,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77050624"/>
+        <c:crossAx val="194255488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77050624"/>
+        <c:axId val="194255488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -12809,7 +12809,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77040256"/>
+        <c:crossAx val="194253568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12822,7 +12822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14688,11 +14688,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77161984"/>
-        <c:axId val="77163904"/>
+        <c:axId val="193871232"/>
+        <c:axId val="194295296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77161984"/>
+        <c:axId val="193871232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -14728,12 +14728,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77163904"/>
+        <c:crossAx val="194295296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77163904"/>
+        <c:axId val="194295296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -14761,7 +14761,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77161984"/>
+        <c:crossAx val="193871232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14774,7 +14774,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14805,7 +14805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -16633,11 +16632,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77189504"/>
-        <c:axId val="77191424"/>
+        <c:axId val="194185472"/>
+        <c:axId val="194208128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77189504"/>
+        <c:axId val="194185472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -16665,16 +16664,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77191424"/>
+        <c:crossAx val="194208128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77191424"/>
+        <c:axId val="194208128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="29"/>
@@ -16698,24 +16696,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77189504"/>
+        <c:crossAx val="194185472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16877,23 +16873,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_HTU_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_bmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_bmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_cam_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_cam_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_mcp_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_mcp_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="provaLabView_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="provaLabView_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_HTU_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17183,7 +17179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -30403,7 +30399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
